--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9.13</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,25 +748,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004222</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信民旺债券A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004402</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信民旺债券C</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -846,25 +976,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>004222</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>金信民旺债券A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>004402</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>金信民旺债券C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.41</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.05</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.48</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.24</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.41</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2052,14 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.05</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2068,14 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.48</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2084,13 +2193,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.34</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.24</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.41</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2630,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.05</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2668,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.48</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2706,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,253 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6735</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2794</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1977</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -754,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.99</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0700</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.58</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6900</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.34</v>
       </c>
     </row>
     <row r="4">
@@ -830,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7188</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.24</v>
       </c>
     </row>
     <row r="5">
@@ -868,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3388</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="6">
@@ -906,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3072</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="7">
@@ -944,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2736</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.48</v>
       </c>
     </row>
     <row r="8">
@@ -982,112 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004222</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信民旺债券A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>48.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004402</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金信民旺债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>48.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="D8" t="n">
+        <v>4.83</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1122,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1162,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9899</t>
+          <t>1.7497</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1200,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5109</t>
+          <t>1.0825</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1228,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2620</t>
+          <t>0.8942</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1266,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5273</t>
+          <t>0.8219</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1304,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3519</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1342,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3195</t>
+          <t>0.4234</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1380,36 +884,510 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0.0884</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>4</v>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1422,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1484,22 +1462,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.14</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8629</t>
+          <t>1.9496</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1522,22 +1500,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1395</t>
+          <t>1.2078</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1550,36 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6811</t>
+          <t>0.5094</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1603,17 +1581,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.2724</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1626,36 +1604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2793</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1674,22 +1652,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1200</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1728,7 +1706,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1768,22 +1746,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9496</t>
+          <t>1.8629</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1806,22 +1784,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.19</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2078</t>
+          <t>1.1395</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1834,36 +1812,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5094</t>
+          <t>0.6811</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1887,17 +1865,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2724</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1910,36 +1888,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2000</t>
+          <t>0.2793</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1958,22 +1936,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.1200</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1986,480 +1964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0370</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2619</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6742</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4775</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2701</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>900009</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信证券成长动力混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1916</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1770</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1416</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011997</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>900059</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信证券成长动力混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011998</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2486,7 +1990,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2526,26 +2030,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7497</t>
+          <t>1.9899</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2564,26 +2068,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0825</t>
+          <t>1.5109</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2592,36 +2096,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8942</t>
+          <t>1.2620</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2630,32 +2134,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8219</t>
+          <t>0.5273</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2668,36 +2172,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4474</t>
+          <t>0.3519</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2706,36 +2210,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4234</t>
+          <t>0.3195</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2744,36 +2248,434 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1594</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2787,144 +2689,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.58</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.34</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.24</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.41</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.58</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.34</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.24</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6.05</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.48</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1388,290 +1689,6 @@
       </c>
       <c r="H12" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2078</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5094</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2724</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2000</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1723,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1746,22 +1763,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.14</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8629</t>
+          <t>1.9496</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1784,22 +1801,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1395</t>
+          <t>1.2078</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1812,36 +1829,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6811</t>
+          <t>0.5094</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1865,17 +1882,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.2724</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1888,36 +1905,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2793</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1936,22 +1953,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1200</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1964,6 +1981,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000603-盛达资源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.58</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.24</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6.05</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.48</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.83</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +1807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1689,290 +2274,6 @@
       </c>
       <c r="H12" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2078</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5094</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2724</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2000</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2308,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2047,22 +2348,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.14</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8629</t>
+          <t>1.9496</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2085,22 +2386,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1395</t>
+          <t>1.2078</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2113,36 +2414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6811</t>
+          <t>0.5094</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2166,17 +2467,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.2724</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2189,36 +2490,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2793</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2237,22 +2538,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1200</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2265,6 +2566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2586,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,250 +3567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6735</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2794</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1977</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>